--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H2">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N2">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q2">
-        <v>8.276116881459888</v>
+        <v>29.56749344993556</v>
       </c>
       <c r="R2">
-        <v>8.276116881459888</v>
+        <v>266.10744104942</v>
       </c>
       <c r="S2">
-        <v>0.00287109839582135</v>
+        <v>0.006970210362993739</v>
       </c>
       <c r="T2">
-        <v>0.00287109839582135</v>
+        <v>0.006970210362993738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H3">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N3">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q3">
-        <v>19.25601336143085</v>
+        <v>41.10226013141778</v>
       </c>
       <c r="R3">
-        <v>19.25601336143085</v>
+        <v>369.92034118276</v>
       </c>
       <c r="S3">
-        <v>0.006680174997983629</v>
+        <v>0.009689404345199814</v>
       </c>
       <c r="T3">
-        <v>0.006680174997983629</v>
+        <v>0.009689404345199814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H4">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N4">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q4">
-        <v>27.18018791394488</v>
+        <v>96.24402107005001</v>
       </c>
       <c r="R4">
-        <v>27.18018791394488</v>
+        <v>866.1961896304501</v>
       </c>
       <c r="S4">
-        <v>0.009429179775441311</v>
+        <v>0.02268846610804313</v>
       </c>
       <c r="T4">
-        <v>0.009429179775441311</v>
+        <v>0.02268846610804313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H5">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N5">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q5">
-        <v>63.83255901221747</v>
+        <v>134.4686070826978</v>
       </c>
       <c r="R5">
-        <v>63.83255901221747</v>
+        <v>1210.21746374428</v>
       </c>
       <c r="S5">
-        <v>0.02214438974293713</v>
+        <v>0.03169949052908968</v>
       </c>
       <c r="T5">
-        <v>0.02214438974293713</v>
+        <v>0.03169949052908968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H6">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I6">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J6">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N6">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q6">
-        <v>3.415472068962209</v>
+        <v>7.201578506043334</v>
       </c>
       <c r="R6">
-        <v>3.415472068962209</v>
+        <v>64.81420655439</v>
       </c>
       <c r="S6">
-        <v>0.001184874080275222</v>
+        <v>0.001697692677863622</v>
       </c>
       <c r="T6">
-        <v>0.001184874080275222</v>
+        <v>0.001697692677863622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H7">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I7">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J7">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N7">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q7">
-        <v>1.827092060408452</v>
+        <v>4.19149165094889</v>
       </c>
       <c r="R7">
-        <v>1.827092060408452</v>
+        <v>37.72342485854</v>
       </c>
       <c r="S7">
-        <v>0.0006338432816733358</v>
+        <v>0.0009880979120301238</v>
       </c>
       <c r="T7">
-        <v>0.0006338432816733358</v>
+        <v>0.0009880979120301236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N8">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q8">
-        <v>83.82996585394736</v>
+        <v>142.8413222050518</v>
       </c>
       <c r="R8">
-        <v>83.82996585394736</v>
+        <v>1285.571899845466</v>
       </c>
       <c r="S8">
-        <v>0.02908176430231501</v>
+        <v>0.03367326574311119</v>
       </c>
       <c r="T8">
-        <v>0.02908176430231501</v>
+        <v>0.03367326574311119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N9">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q9">
-        <v>195.0469000973263</v>
+        <v>198.5660770578609</v>
       </c>
       <c r="R9">
-        <v>195.0469000973263</v>
+        <v>1787.094693520748</v>
       </c>
       <c r="S9">
-        <v>0.06766444336158021</v>
+        <v>0.04680976188905629</v>
       </c>
       <c r="T9">
-        <v>0.06766444336158021</v>
+        <v>0.04680976188905631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J10">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N10">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q10">
-        <v>275.311992008497</v>
+        <v>464.957344025615</v>
       </c>
       <c r="R10">
-        <v>275.311992008497</v>
+        <v>4184.616096230536</v>
       </c>
       <c r="S10">
-        <v>0.09550950402558149</v>
+        <v>0.109608563984799</v>
       </c>
       <c r="T10">
-        <v>0.09550950402558149</v>
+        <v>0.109608563984799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J11">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N11">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q11">
-        <v>646.5690756919749</v>
+        <v>649.621303317005</v>
       </c>
       <c r="R11">
-        <v>646.5690756919749</v>
+        <v>5846.591729853045</v>
       </c>
       <c r="S11">
-        <v>0.2243036755758654</v>
+        <v>0.1531410549923215</v>
       </c>
       <c r="T11">
-        <v>0.2243036755758654</v>
+        <v>0.1531410549923215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J12">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N12">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q12">
-        <v>34.59580271970578</v>
+        <v>34.79101119979967</v>
       </c>
       <c r="R12">
-        <v>34.59580271970578</v>
+        <v>313.119100798197</v>
       </c>
       <c r="S12">
-        <v>0.01200175820537444</v>
+        <v>0.008201597041510578</v>
       </c>
       <c r="T12">
-        <v>0.01200175820537444</v>
+        <v>0.008201597041510579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J13">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N13">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q13">
-        <v>18.50687553473034</v>
+        <v>20.24920409458245</v>
       </c>
       <c r="R13">
-        <v>18.50687553473034</v>
+        <v>182.242836851242</v>
       </c>
       <c r="S13">
-        <v>0.006420288816662625</v>
+        <v>0.00477352645605275</v>
       </c>
       <c r="T13">
-        <v>0.006420288816662625</v>
+        <v>0.00477352645605275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H14">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I14">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J14">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N14">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q14">
-        <v>10.67641217213379</v>
+        <v>34.96064243890112</v>
       </c>
       <c r="R14">
-        <v>10.67641217213379</v>
+        <v>314.64578195011</v>
       </c>
       <c r="S14">
-        <v>0.003703793735587472</v>
+        <v>0.008241585734589158</v>
       </c>
       <c r="T14">
-        <v>0.003703793735587472</v>
+        <v>0.008241585734589158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H15">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I15">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J15">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N15">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q15">
-        <v>24.84077235536655</v>
+        <v>48.59936545917556</v>
       </c>
       <c r="R15">
-        <v>24.84077235536655</v>
+        <v>437.39428913258</v>
       </c>
       <c r="S15">
-        <v>0.008617604449283164</v>
+        <v>0.01145676421073846</v>
       </c>
       <c r="T15">
-        <v>0.008617604449283164</v>
+        <v>0.01145676421073846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H16">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I16">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J16">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N16">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q16">
-        <v>35.06316950832339</v>
+        <v>113.799054803525</v>
       </c>
       <c r="R16">
-        <v>35.06316950832339</v>
+        <v>1024.191493231725</v>
       </c>
       <c r="S16">
-        <v>0.01216389415104556</v>
+        <v>0.02682687162621663</v>
       </c>
       <c r="T16">
-        <v>0.01216389415104556</v>
+        <v>0.02682687162621664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H17">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I17">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J17">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N17">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q17">
-        <v>82.34570871554335</v>
+        <v>158.9958546684156</v>
       </c>
       <c r="R17">
-        <v>82.34570871554335</v>
+        <v>1430.96269201574</v>
       </c>
       <c r="S17">
-        <v>0.02856685515469233</v>
+        <v>0.03748151853857101</v>
       </c>
       <c r="T17">
-        <v>0.02856685515469233</v>
+        <v>0.03748151853857102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H18">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I18">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J18">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N18">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q18">
-        <v>4.406050336521923</v>
+        <v>8.515155725721668</v>
       </c>
       <c r="R18">
-        <v>4.406050336521923</v>
+        <v>76.63640153149501</v>
       </c>
       <c r="S18">
-        <v>0.001528519260214308</v>
+        <v>0.002007354014719838</v>
       </c>
       <c r="T18">
-        <v>0.001528519260214308</v>
+        <v>0.002007354014719838</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H19">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I19">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J19">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N19">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q19">
-        <v>2.356997634609631</v>
+        <v>4.956025141007778</v>
       </c>
       <c r="R19">
-        <v>2.356997634609631</v>
+        <v>44.60422626907</v>
       </c>
       <c r="S19">
-        <v>0.0008176747893498472</v>
+        <v>0.001168328247221958</v>
       </c>
       <c r="T19">
-        <v>0.0008176747893498472</v>
+        <v>0.001168328247221958</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H20">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I20">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J20">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N20">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q20">
-        <v>16.74619747424553</v>
+        <v>37.68885931241623</v>
       </c>
       <c r="R20">
-        <v>16.74619747424553</v>
+        <v>339.199733811746</v>
       </c>
       <c r="S20">
-        <v>0.005809485461970986</v>
+        <v>0.008884732762133722</v>
       </c>
       <c r="T20">
-        <v>0.005809485461970986</v>
+        <v>0.008884732762133722</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H21">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I21">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J21">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N21">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q21">
-        <v>38.96332143877955</v>
+        <v>52.39190471584311</v>
       </c>
       <c r="R21">
-        <v>38.96332143877955</v>
+        <v>471.5271424425881</v>
       </c>
       <c r="S21">
-        <v>0.01351691031930163</v>
+        <v>0.01235081349745411</v>
       </c>
       <c r="T21">
-        <v>0.01351691031930163</v>
+        <v>0.01235081349745412</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H22">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I22">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J22">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N22">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q22">
-        <v>54.99738593756213</v>
+        <v>122.679569572315</v>
       </c>
       <c r="R22">
-        <v>54.99738593756213</v>
+        <v>1104.116126150835</v>
       </c>
       <c r="S22">
-        <v>0.01907934709011125</v>
+        <v>0.02892035500433754</v>
       </c>
       <c r="T22">
-        <v>0.01907934709011125</v>
+        <v>0.02892035500433755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H23">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I23">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J23">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N23">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q23">
-        <v>129.1611336349885</v>
+        <v>171.4033833425071</v>
       </c>
       <c r="R23">
-        <v>129.1611336349885</v>
+        <v>1542.630450082564</v>
       </c>
       <c r="S23">
-        <v>0.04480776780867166</v>
+        <v>0.04040645653136132</v>
       </c>
       <c r="T23">
-        <v>0.04480776780867166</v>
+        <v>0.04040645653136132</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H24">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I24">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J24">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N24">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q24">
-        <v>6.910991054602145</v>
+        <v>9.179651281606334</v>
       </c>
       <c r="R24">
-        <v>6.910991054602145</v>
+        <v>82.616861534457</v>
       </c>
       <c r="S24">
-        <v>0.002397517533235202</v>
+        <v>0.002164001510647521</v>
       </c>
       <c r="T24">
-        <v>0.002397517533235202</v>
+        <v>0.002164001510647521</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H25">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I25">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J25">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N25">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O25">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P25">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q25">
-        <v>3.697004873839922</v>
+        <v>5.342777513733556</v>
       </c>
       <c r="R25">
-        <v>3.697004873839922</v>
+        <v>48.08499762360201</v>
       </c>
       <c r="S25">
-        <v>0.001282541669560513</v>
+        <v>0.001259500852057404</v>
       </c>
       <c r="T25">
-        <v>0.001282541669560513</v>
+        <v>0.001259500852057404</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H26">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I26">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J26">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N26">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O26">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P26">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q26">
-        <v>3.765117107844025</v>
+        <v>6.911436811916666</v>
       </c>
       <c r="R26">
-        <v>3.765117107844025</v>
+        <v>62.20293130725</v>
       </c>
       <c r="S26">
-        <v>0.001306170737224247</v>
+        <v>0.001629294974603366</v>
       </c>
       <c r="T26">
-        <v>0.001306170737224247</v>
+        <v>0.001629294974603366</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H27">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I27">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J27">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N27">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P27">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q27">
-        <v>8.760285333622232</v>
+        <v>9.607702262833332</v>
       </c>
       <c r="R27">
-        <v>8.760285333622232</v>
+        <v>86.4693203655</v>
       </c>
       <c r="S27">
-        <v>0.003039063068894624</v>
+        <v>0.002264909806790039</v>
       </c>
       <c r="T27">
-        <v>0.003039063068894624</v>
+        <v>0.00226490980679004</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H28">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I28">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J28">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N28">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O28">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P28">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q28">
-        <v>12.36529062783818</v>
+        <v>22.497154561875</v>
       </c>
       <c r="R28">
-        <v>12.36529062783818</v>
+        <v>202.474391056875</v>
       </c>
       <c r="S28">
-        <v>0.004289688823146309</v>
+        <v>0.0053034559771043</v>
       </c>
       <c r="T28">
-        <v>0.004289688823146309</v>
+        <v>0.005303455977104301</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H29">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I29">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J29">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N29">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O29">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P29">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q29">
-        <v>29.03983394830552</v>
+        <v>31.43219707183333</v>
       </c>
       <c r="R29">
-        <v>29.03983394830552</v>
+        <v>282.8897736465</v>
       </c>
       <c r="S29">
-        <v>0.01007431647693103</v>
+        <v>0.00740979366860168</v>
       </c>
       <c r="T29">
-        <v>0.01007431647693103</v>
+        <v>0.007409793668601681</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H30">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I30">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J30">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N30">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O30">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P30">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q30">
-        <v>1.553826813033678</v>
+        <v>1.683377553625</v>
       </c>
       <c r="R30">
-        <v>1.553826813033678</v>
+        <v>15.150397982625</v>
       </c>
       <c r="S30">
-        <v>0.0005390438214181252</v>
+        <v>0.0003968376855811427</v>
       </c>
       <c r="T30">
-        <v>0.0005390438214181252</v>
+        <v>0.0003968376855811427</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H31">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I31">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J31">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N31">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O31">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P31">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q31">
-        <v>0.8312129556387284</v>
+        <v>0.9797661659166667</v>
       </c>
       <c r="R31">
-        <v>0.8312129556387284</v>
+        <v>8.817895493250001</v>
       </c>
       <c r="S31">
-        <v>0.0002883591686418165</v>
+        <v>0.0002309690638655701</v>
       </c>
       <c r="T31">
-        <v>0.0002883591686418165</v>
+        <v>0.0002309690638655701</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H32">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I32">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J32">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N32">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O32">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P32">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q32">
-        <v>69.42698097648251</v>
+        <v>149.0358784275905</v>
       </c>
       <c r="R32">
-        <v>69.42698097648251</v>
+        <v>1341.322905848314</v>
       </c>
       <c r="S32">
-        <v>0.02408517141110466</v>
+        <v>0.03513356402810432</v>
       </c>
       <c r="T32">
-        <v>0.02408517141110466</v>
+        <v>0.03513356402810432</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H33">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I33">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J33">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N33">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P33">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q33">
-        <v>161.5355235402535</v>
+        <v>207.1772317940102</v>
       </c>
       <c r="R33">
-        <v>161.5355235402535</v>
+        <v>1864.595086146092</v>
       </c>
       <c r="S33">
-        <v>0.0560388874574199</v>
+        <v>0.04883974661132843</v>
       </c>
       <c r="T33">
-        <v>0.0560388874574199</v>
+        <v>0.04883974661132844</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H34">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I34">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J34">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N34">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O34">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P34">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q34">
-        <v>228.0101183039119</v>
+        <v>485.121007902335</v>
       </c>
       <c r="R34">
-        <v>228.0101183039119</v>
+        <v>4366.089071121015</v>
       </c>
       <c r="S34">
-        <v>0.07909983561975996</v>
+        <v>0.1143619252782549</v>
       </c>
       <c r="T34">
-        <v>0.07909983561975996</v>
+        <v>0.114361925278255</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H35">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I35">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J35">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N35">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O35">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P35">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q35">
-        <v>535.4808207396508</v>
+        <v>677.7932330123863</v>
       </c>
       <c r="R35">
-        <v>535.4808207396508</v>
+        <v>6100.139097111476</v>
       </c>
       <c r="S35">
-        <v>0.1857656371266127</v>
+        <v>0.1597822765974185</v>
       </c>
       <c r="T35">
-        <v>0.1857656371266127</v>
+        <v>0.1597822765974186</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H36">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I36">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J36">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N36">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O36">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P36">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q36">
-        <v>28.65183246611159</v>
+        <v>36.29978241242367</v>
       </c>
       <c r="R36">
-        <v>28.65183246611159</v>
+        <v>326.698041711813</v>
       </c>
       <c r="S36">
-        <v>0.009939713444003972</v>
+        <v>0.008557273208630565</v>
       </c>
       <c r="T36">
-        <v>0.009939713444003972</v>
+        <v>0.008557273208630567</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H37">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I37">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J37">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N37">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O37">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P37">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q37">
-        <v>15.32717426990758</v>
+        <v>21.12734517651311</v>
       </c>
       <c r="R37">
-        <v>15.32717426990758</v>
+        <v>190.146106588618</v>
       </c>
       <c r="S37">
-        <v>0.005317206860307585</v>
+        <v>0.00498053852759705</v>
       </c>
       <c r="T37">
-        <v>0.005317206860307585</v>
+        <v>0.00498053852759705</v>
       </c>
     </row>
   </sheetData>
